--- a/KeywordFramework/TestCase.xlsx
+++ b/KeywordFramework/TestCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Keyword</t>
   </si>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,46 +650,52 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -697,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>7</v>
@@ -709,39 +715,24 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/KeywordFramework/TestCase.xlsx
+++ b/KeywordFramework/TestCase.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="22830" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="23">
   <si>
     <t>Keyword</t>
   </si>
@@ -447,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +509,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -521,218 +522,245 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
